--- a/medicine/Psychotrope/Tassimo/Tassimo.xlsx
+++ b/medicine/Psychotrope/Tassimo/Tassimo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tassimo est une marque de Jacobs Douwe Egberts.
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,9 +555,11 @@
           <t>Les machines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Tassimo a été développée par la multinationale Kraft Foods. Elles étaient originellement fabriquées par Saeco, une compagnie italienne spécialisée dans les cafetières, et distribuées par Braun[1]. Elle a été introduite en France pour la première fois en 2004 puis s'est par la suite développée en Autriche, au Canada, en Grèce, Allemagne, Espagne, Suisse, Russie, Pologne, Royaume-Uni et aux États-Unis. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Tassimo a été développée par la multinationale Kraft Foods. Elles étaient originellement fabriquées par Saeco, une compagnie italienne spécialisée dans les cafetières, et distribuées par Braun. Elle a été introduite en France pour la première fois en 2004 puis s'est par la suite développée en Autriche, au Canada, en Grèce, Allemagne, Espagne, Suisse, Russie, Pologne, Royaume-Uni et aux États-Unis. 
 En 2008, Kraft a annoncé que la nouvelle génération de Tassimo allait être fabriquée par Bosch[réf. nécessaire].
 Toutes ces machines préparent le café en une minute et peuvent commencer un autre café immédiatement. Elles utilisent toutes la technologie One-Touch et sont programmables pour une percolation personnalisée du café, selon les préférences de l'utilisateur. Toutes les cafetières Tassimo fonctionnent avec les capsules cafés de marques T-Disc développés par Kraft pour la Tassimo.
 </t>
@@ -574,12 +590,14 @@
           <t>T-Discs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le T-Disc est une sorte de Dosette de café développé par Kraft Foods pour leurs modèles de cafetière Tassimo.
 Un code à barres est imprimé sur le dessus des capsules, celui-ci indique à la machine comment préparer le café de la bonne façon. Ainsi, toute dosette portant le même code à barres sera préparée de la même façon, offrant ainsi au client un café qui aura toujours le même goût. Selon le code à barres, la machine changera ainsi la température, la quantité d'eau et le temps de percolation. Cette technologie permet à la machine de préparer différents types de boissons : Café, Thé, Expresso, Cappuccino, Chocolat Chaud.
 Les T-Discs sont disponibles principalement sous les différentes marques de Kraft, soit : Gevalia, Maxwell House, Mastro Lorenzo, Nabob, Carte Noire, Kenco, Jacobs, Suchard, Milka, Côte d'Or et Twinings. 
-En 2012, Kraft a signé un partenariat avec d'autres compagnies pour distribuer des T-discs d'autres marques que celles détenues par Kraft. Au Canada, des T-Discs sont vendus à partir d'autres marques tel que Second Cup[2], Tim Hortons[3] de même que Le Choix du Président[4].
+En 2012, Kraft a signé un partenariat avec d'autres compagnies pour distribuer des T-discs d'autres marques que celles détenues par Kraft. Au Canada, des T-Discs sont vendus à partir d'autres marques tel que Second Cup, Tim Hortons de même que Le Choix du Président.
 T-Discs disponibles en magasins en France :
 Cafés Carte Noire : Voluptuoso Classic, Voluptuoso Corsé, Café long Délicat (ex -Voluptuoso Colombie), Café long aromatique (ex-Voluptuoso Kenya), Espresso décaféiné, Espresso Classic, Espresso Aromatique, Espresso Intense
 Autres Cafés Carte Noire : Cappuccino, Espresso Macchiato, Latte Macchiato Caramel
